--- a/biology/Botanique/Rhektophyllum/Rhektophyllum.xlsx
+++ b/biology/Botanique/Rhektophyllum/Rhektophyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhektophyllum N.E. Br. est un genre de plantes appartenant à la famille des Araceae, décrit par Nicholas Edward Brown en 1882.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (24 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (24 juillet 2017) :
 Cercestis afzelii Schott
 Cercestis camerunensis (Ntépé-Nyamè) Bogner
 Cercestis congoensis Engl.
@@ -524,12 +538,12 @@
 Cercestis mirabilis (N.E. Br.) Bogner
 Cercestis sagittatus Engl.
 Cercestis taiensis Bogner &amp; Knecht
-Selon GRIN            (24 juillet 2017)[3] :
+Selon GRIN            (24 juillet 2017) :
 Cercestis congensis Engl.
 Cercestis mirabilis (N. E. Br.) Bogner
-Selon NCBI  (24 juillet 2017)[4] :
+Selon NCBI  (24 juillet 2017) :
 Cercestis mirabilis
-Selon Tropicos                                           (24 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Rhektophyllum camerunense Ntepe-Nyame
 Rhektophyllum congense De Wild. &amp; T. Durand
 Rhektophyllum mirabile N.E. Br.</t>
